--- a/nombre_carnet.xlsx
+++ b/nombre_carnet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,54 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aldair Rivera</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202500001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fasdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202500002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zdgfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202500003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>weradfasd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202500004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nombre_carnet.xlsx
+++ b/nombre_carnet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>asdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202500005</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
